--- a/files/1/catalog2.xlsx
+++ b/files/1/catalog2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Yandex.Disk.localized/temp/Хакатон_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/github/hackoton/shop_bots_constructor/files/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A582B-9061-8C4A-A5B4-9D4A3FCE081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF087B-1AFB-B142-B982-084E8F513F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{72D77ED4-A42E-41B6-BA2B-93D13821C5D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>https://vsestulya.ru/image/cache/catalog/STOOLGROUP/stulya/Interernie/Lionstrajps/stul-lion-strajps-velyur-goluboj(2)-1000x1000.jpg</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>https://vsestulya.ru/image/cache/catalog/Dizajnerskaya/DizajnerskieStulya/N-42Perfecto/zheltii-1000x1000.jpg</t>
-  </si>
-  <si>
-    <t>Стул Tolix Wood</t>
   </si>
 </sst>
 </file>
@@ -591,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F23A40-0F32-4698-ABD3-D8D6CC103144}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="108" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,8 +598,8 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="114.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1030,12 +1027,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1009</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
